--- a/data/sector23.xlsx
+++ b/data/sector23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\share\dev\baidu_show_fig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\share\dev\Competition--Network\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
   <si>
     <t>SECTOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,6 +611,588 @@
   </si>
   <si>
     <t>国际组织-国际组织综合</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>安保服务</t>
+  </si>
+  <si>
+    <t>安保器材</t>
+  </si>
+  <si>
+    <t>安全防伪</t>
+  </si>
+  <si>
+    <t>防盗报警</t>
+  </si>
+  <si>
+    <t>交通消防</t>
+  </si>
+  <si>
+    <t>智能楼宇</t>
+  </si>
+  <si>
+    <t>办公设备</t>
+  </si>
+  <si>
+    <t>教具</t>
+  </si>
+  <si>
+    <t>文具</t>
+  </si>
+  <si>
+    <t>彩票</t>
+  </si>
+  <si>
+    <t>物流</t>
+  </si>
+  <si>
+    <t>车辆</t>
+  </si>
+  <si>
+    <t>火车</t>
+  </si>
+  <si>
+    <t>船舶</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>成人用品</t>
+  </si>
+  <si>
+    <t>出版印刷</t>
+  </si>
+  <si>
+    <t>影视传媒</t>
+  </si>
+  <si>
+    <t>广播有线电视</t>
+  </si>
+  <si>
+    <t>电脑整机</t>
+  </si>
+  <si>
+    <t>电脑配件</t>
+  </si>
+  <si>
+    <t>网络设备</t>
+  </si>
+  <si>
+    <t>电脑服务</t>
+  </si>
+  <si>
+    <t>电子元器件</t>
+  </si>
+  <si>
+    <t>电机设备</t>
+  </si>
+  <si>
+    <t>电线电缆</t>
+  </si>
+  <si>
+    <t>供电设备</t>
+  </si>
+  <si>
+    <t>照明设备</t>
+  </si>
+  <si>
+    <t>仪器仪表</t>
+  </si>
+  <si>
+    <t>建筑工程</t>
+  </si>
+  <si>
+    <t>房屋租售</t>
+  </si>
+  <si>
+    <t>物业管理</t>
+  </si>
+  <si>
+    <t>装修服务</t>
+  </si>
+  <si>
+    <t>建筑装修材料</t>
+  </si>
+  <si>
+    <t>网上商城</t>
+  </si>
+  <si>
+    <t>导购网站</t>
+  </si>
+  <si>
+    <t>团购网站</t>
+  </si>
+  <si>
+    <t>社交平台</t>
+  </si>
+  <si>
+    <t>分类服务平台</t>
+  </si>
+  <si>
+    <t>生活服务网站</t>
+  </si>
+  <si>
+    <t>休闲娱乐网站</t>
+  </si>
+  <si>
+    <t>服装</t>
+  </si>
+  <si>
+    <t>鞋帽</t>
+  </si>
+  <si>
+    <t>纺织原料</t>
+  </si>
+  <si>
+    <t>箱包</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
+    <t>涂料</t>
+  </si>
+  <si>
+    <t>化工原料</t>
+  </si>
+  <si>
+    <t>橡胶</t>
+  </si>
+  <si>
+    <t>塑料</t>
+  </si>
+  <si>
+    <t>能源</t>
+  </si>
+  <si>
+    <t>冶金</t>
+  </si>
+  <si>
+    <t>包装材料</t>
+  </si>
+  <si>
+    <t>通用机械设备</t>
+  </si>
+  <si>
+    <t>通用零配件</t>
+  </si>
+  <si>
+    <t>建筑工程机械</t>
+  </si>
+  <si>
+    <t>勘探机械</t>
+  </si>
+  <si>
+    <t>化工机械</t>
+  </si>
+  <si>
+    <t>木材石材加工机械</t>
+  </si>
+  <si>
+    <t>印刷机械</t>
+  </si>
+  <si>
+    <t>模具</t>
+  </si>
+  <si>
+    <t>食品机械</t>
+  </si>
+  <si>
+    <t>农林机械</t>
+  </si>
+  <si>
+    <t>纸制造加工设备</t>
+  </si>
+  <si>
+    <t>制鞋纺织机械</t>
+  </si>
+  <si>
+    <t>商业设备</t>
+  </si>
+  <si>
+    <t>包装机械</t>
+  </si>
+  <si>
+    <t>制药设备</t>
+  </si>
+  <si>
+    <t>冶炼铸造设备</t>
+  </si>
+  <si>
+    <t>机床机械</t>
+  </si>
+  <si>
+    <t>五金工具</t>
+  </si>
+  <si>
+    <t>物流设备</t>
+  </si>
+  <si>
+    <t>清洁通风设备</t>
+  </si>
+  <si>
+    <t>焊接材料设备</t>
+  </si>
+  <si>
+    <t>玻璃橡塑设备</t>
+  </si>
+  <si>
+    <t>金属材料</t>
+  </si>
+  <si>
+    <t>电子产品制造设备</t>
+  </si>
+  <si>
+    <t>家具</t>
+  </si>
+  <si>
+    <t>家纺家饰</t>
+  </si>
+  <si>
+    <t>厨具餐具</t>
+  </si>
+  <si>
+    <t>日化用品</t>
+  </si>
+  <si>
+    <t>大型家电</t>
+  </si>
+  <si>
+    <t>厨用电器</t>
+  </si>
+  <si>
+    <t>卫浴家电</t>
+  </si>
+  <si>
+    <t>健康电器</t>
+  </si>
+  <si>
+    <t>生活小家电</t>
+  </si>
+  <si>
+    <t>学前教育</t>
+  </si>
+  <si>
+    <t>小初高教育</t>
+  </si>
+  <si>
+    <t>高教自考</t>
+  </si>
+  <si>
+    <t>留学</t>
+  </si>
+  <si>
+    <t>IT培训</t>
+  </si>
+  <si>
+    <t>语言培训</t>
+  </si>
+  <si>
+    <t>职业培训</t>
+  </si>
+  <si>
+    <t>文体培训</t>
+  </si>
+  <si>
+    <t>企业培训拓展</t>
+  </si>
+  <si>
+    <t>特殊人群教育</t>
+  </si>
+  <si>
+    <t>污染处理</t>
+  </si>
+  <si>
+    <t>废旧回收</t>
+  </si>
+  <si>
+    <t>节能</t>
+  </si>
+  <si>
+    <t>理财</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>保险</t>
+  </si>
+  <si>
+    <t>投资担保</t>
+  </si>
+  <si>
+    <t>典当</t>
+  </si>
+  <si>
+    <t>礼品</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>宾馆酒店</t>
+  </si>
+  <si>
+    <t>交通票务</t>
+  </si>
+  <si>
+    <t>文体票务</t>
+  </si>
+  <si>
+    <t>化妆品</t>
+  </si>
+  <si>
+    <t>美容</t>
+  </si>
+  <si>
+    <t>母婴护理</t>
+  </si>
+  <si>
+    <t>兽医兽药</t>
+  </si>
+  <si>
+    <t>农药</t>
+  </si>
+  <si>
+    <t>化肥</t>
+  </si>
+  <si>
+    <t>养殖</t>
+  </si>
+  <si>
+    <t>种植</t>
+  </si>
+  <si>
+    <t>园林景观</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <t>中间件软件</t>
+  </si>
+  <si>
+    <t>应用软件</t>
+  </si>
+  <si>
+    <t>杀毒软件</t>
+  </si>
+  <si>
+    <t>监控安全软件</t>
+  </si>
+  <si>
+    <t>数据库软件</t>
+  </si>
+  <si>
+    <t>企业软件</t>
+  </si>
+  <si>
+    <t>行业专用软件</t>
+  </si>
+  <si>
+    <t>支付结算软件</t>
+  </si>
+  <si>
+    <t>教学软件</t>
+  </si>
+  <si>
+    <t>出国</t>
+  </si>
+  <si>
+    <t>招聘</t>
+  </si>
+  <si>
+    <t>翻译</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>广告</t>
+  </si>
+  <si>
+    <t>公关策划</t>
+  </si>
+  <si>
+    <t>咨询</t>
+  </si>
+  <si>
+    <t>拍卖</t>
+  </si>
+  <si>
+    <t>代理</t>
+  </si>
+  <si>
+    <t>调查</t>
+  </si>
+  <si>
+    <t>法律服务</t>
+  </si>
+  <si>
+    <t>会计审计</t>
+  </si>
+  <si>
+    <t>铃声短信</t>
+  </si>
+  <si>
+    <t>搬家</t>
+  </si>
+  <si>
+    <t>家政</t>
+  </si>
+  <si>
+    <t>征婚交友</t>
+  </si>
+  <si>
+    <t>仪式典礼</t>
+  </si>
+  <si>
+    <t>摄影</t>
+  </si>
+  <si>
+    <t>汽车租赁</t>
+  </si>
+  <si>
+    <t>家电维修</t>
+  </si>
+  <si>
+    <t>居民服务</t>
+  </si>
+  <si>
+    <t>生活食材</t>
+  </si>
+  <si>
+    <t>休闲零食</t>
+  </si>
+  <si>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>保健食品</t>
+  </si>
+  <si>
+    <t>烟酒</t>
+  </si>
+  <si>
+    <t>餐馆</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>数码产品</t>
+  </si>
+  <si>
+    <t>通讯服务</t>
+  </si>
+  <si>
+    <t>通讯设备</t>
+  </si>
+  <si>
+    <t>网站建设</t>
+  </si>
+  <si>
+    <t>域名空间</t>
+  </si>
+  <si>
+    <t>男科</t>
+  </si>
+  <si>
+    <t>妇科</t>
+  </si>
+  <si>
+    <t>美容整形</t>
+  </si>
+  <si>
+    <t>专科医院</t>
+  </si>
+  <si>
+    <t>中医</t>
+  </si>
+  <si>
+    <t>体检机构</t>
+  </si>
+  <si>
+    <t>综合医院</t>
+  </si>
+  <si>
+    <t>药品</t>
+  </si>
+  <si>
+    <t>医疗器械</t>
+  </si>
+  <si>
+    <t>游戏开发</t>
+  </si>
+  <si>
+    <t>游戏运营</t>
+  </si>
+  <si>
+    <t>游戏周边</t>
+  </si>
+  <si>
+    <t>体育器械</t>
+  </si>
+  <si>
+    <t>休闲活动</t>
+  </si>
+  <si>
+    <t>运势测算</t>
+  </si>
+  <si>
+    <t>宠物服务</t>
+  </si>
+  <si>
+    <t>玩具模型</t>
+  </si>
+  <si>
+    <t>乐器</t>
+  </si>
+  <si>
+    <t>服装饰品加盟</t>
+  </si>
+  <si>
+    <t>美容化妆加盟</t>
+  </si>
+  <si>
+    <t>礼品加盟</t>
+  </si>
+  <si>
+    <t>食品保健品加盟</t>
+  </si>
+  <si>
+    <t>生活服务加盟</t>
+  </si>
+  <si>
+    <t>教育培训加盟</t>
+  </si>
+  <si>
+    <t>机械电子建材加盟</t>
+  </si>
+  <si>
+    <t>汽车加盟</t>
+  </si>
+  <si>
+    <t>旅游住宿加盟</t>
+  </si>
+  <si>
+    <t>干洗加盟</t>
+  </si>
+  <si>
+    <t>综合招商</t>
+  </si>
+  <si>
+    <t>养殖加盟</t>
+  </si>
+  <si>
+    <t>学术公管社会组织</t>
+  </si>
+  <si>
+    <t>国际组织</t>
   </si>
 </sst>
 </file>
@@ -940,1563 +1522,2145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B194"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5101</v>
       </c>
       <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5102</v>
       </c>
       <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5103</v>
       </c>
       <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5104</v>
       </c>
       <c r="B5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5105</v>
       </c>
       <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5106</v>
       </c>
       <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5201</v>
       </c>
       <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5202</v>
       </c>
       <c r="B9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5203</v>
       </c>
       <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5301</v>
       </c>
       <c r="B11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5401</v>
       </c>
       <c r="B12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5402</v>
       </c>
       <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5403</v>
       </c>
       <c r="B14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5404</v>
       </c>
       <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5405</v>
       </c>
       <c r="B16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5501</v>
       </c>
       <c r="B17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5601</v>
       </c>
       <c r="B18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5602</v>
       </c>
       <c r="B19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5603</v>
       </c>
       <c r="B20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5701</v>
       </c>
       <c r="B21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5702</v>
       </c>
       <c r="B22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5703</v>
       </c>
       <c r="B23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>5704</v>
       </c>
       <c r="B24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5801</v>
       </c>
       <c r="B25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5802</v>
       </c>
       <c r="B26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5803</v>
       </c>
       <c r="B27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5804</v>
       </c>
       <c r="B28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5805</v>
       </c>
       <c r="B29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>5806</v>
       </c>
       <c r="B30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>5901</v>
       </c>
       <c r="B31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>5902</v>
       </c>
       <c r="B32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>5903</v>
       </c>
       <c r="B33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>5904</v>
       </c>
       <c r="B34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>5905</v>
       </c>
       <c r="B35" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>6001</v>
       </c>
       <c r="B36" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>6002</v>
       </c>
       <c r="B37" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>6003</v>
       </c>
       <c r="B38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>6004</v>
       </c>
       <c r="B39" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>6005</v>
       </c>
       <c r="B40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>6006</v>
       </c>
       <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>6007</v>
       </c>
       <c r="B42" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>6101</v>
       </c>
       <c r="B43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>6102</v>
       </c>
       <c r="B44" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>6103</v>
       </c>
       <c r="B45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>6201</v>
       </c>
       <c r="B46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>6202</v>
       </c>
       <c r="B47" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>6301</v>
       </c>
       <c r="B48" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>6302</v>
       </c>
       <c r="B49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>6303</v>
       </c>
       <c r="B50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>6304</v>
       </c>
       <c r="B51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>6305</v>
       </c>
       <c r="B52" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>6306</v>
       </c>
       <c r="B53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>6307</v>
       </c>
       <c r="B54" t="s">
+        <v>248</v>
+      </c>
+      <c r="C54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>6401</v>
       </c>
       <c r="B55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>6402</v>
       </c>
       <c r="B56" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>6403</v>
       </c>
       <c r="B57" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>6404</v>
       </c>
       <c r="B58" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>6405</v>
       </c>
       <c r="B59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>6406</v>
       </c>
       <c r="B60" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>6407</v>
       </c>
       <c r="B61" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>6408</v>
       </c>
       <c r="B62" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>6409</v>
       </c>
       <c r="B63" t="s">
+        <v>257</v>
+      </c>
+      <c r="C63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>6410</v>
       </c>
       <c r="B64" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>6411</v>
       </c>
       <c r="B65" t="s">
+        <v>259</v>
+      </c>
+      <c r="C65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>6412</v>
       </c>
       <c r="B66" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>6413</v>
       </c>
       <c r="B67" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>6414</v>
       </c>
       <c r="B68" t="s">
+        <v>262</v>
+      </c>
+      <c r="C68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>6415</v>
       </c>
       <c r="B69" t="s">
+        <v>263</v>
+      </c>
+      <c r="C69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>6416</v>
       </c>
       <c r="B70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>6417</v>
       </c>
       <c r="B71" t="s">
+        <v>265</v>
+      </c>
+      <c r="C71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>6418</v>
       </c>
       <c r="B72" t="s">
+        <v>266</v>
+      </c>
+      <c r="C72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>6419</v>
       </c>
       <c r="B73" t="s">
+        <v>267</v>
+      </c>
+      <c r="C73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>6420</v>
       </c>
       <c r="B74" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>6421</v>
       </c>
       <c r="B75" t="s">
+        <v>269</v>
+      </c>
+      <c r="C75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>6422</v>
       </c>
       <c r="B76" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>6423</v>
       </c>
       <c r="B77" t="s">
+        <v>271</v>
+      </c>
+      <c r="C77" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>6424</v>
       </c>
       <c r="B78" t="s">
+        <v>272</v>
+      </c>
+      <c r="C78" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>6501</v>
       </c>
       <c r="B79" t="s">
+        <v>273</v>
+      </c>
+      <c r="C79" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>6502</v>
       </c>
       <c r="B80" t="s">
+        <v>274</v>
+      </c>
+      <c r="C80" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>6503</v>
       </c>
       <c r="B81" t="s">
+        <v>275</v>
+      </c>
+      <c r="C81" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>6504</v>
       </c>
       <c r="B82" t="s">
+        <v>276</v>
+      </c>
+      <c r="C82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>6601</v>
       </c>
       <c r="B83" t="s">
+        <v>277</v>
+      </c>
+      <c r="C83" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>6602</v>
       </c>
       <c r="B84" t="s">
+        <v>278</v>
+      </c>
+      <c r="C84" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>6603</v>
       </c>
       <c r="B85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C85" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>6604</v>
       </c>
       <c r="B86" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>6605</v>
       </c>
       <c r="B87" t="s">
+        <v>281</v>
+      </c>
+      <c r="C87" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>6701</v>
       </c>
       <c r="B88" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>6702</v>
       </c>
       <c r="B89" t="s">
+        <v>283</v>
+      </c>
+      <c r="C89" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>6703</v>
       </c>
       <c r="B90" t="s">
+        <v>284</v>
+      </c>
+      <c r="C90" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>6704</v>
       </c>
       <c r="B91" t="s">
+        <v>285</v>
+      </c>
+      <c r="C91" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>6705</v>
       </c>
       <c r="B92" t="s">
+        <v>286</v>
+      </c>
+      <c r="C92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>6706</v>
       </c>
       <c r="B93" t="s">
+        <v>287</v>
+      </c>
+      <c r="C93" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>6707</v>
       </c>
       <c r="B94" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>6708</v>
       </c>
       <c r="B95" t="s">
+        <v>289</v>
+      </c>
+      <c r="C95" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>6709</v>
       </c>
       <c r="B96" t="s">
+        <v>290</v>
+      </c>
+      <c r="C96" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>6710</v>
       </c>
       <c r="B97" t="s">
+        <v>291</v>
+      </c>
+      <c r="C97" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>6801</v>
       </c>
       <c r="B98" t="s">
+        <v>292</v>
+      </c>
+      <c r="C98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>6802</v>
       </c>
       <c r="B99" t="s">
+        <v>293</v>
+      </c>
+      <c r="C99" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>6803</v>
       </c>
       <c r="B100" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>6901</v>
       </c>
       <c r="B101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C101" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>6902</v>
       </c>
       <c r="B102" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>6903</v>
       </c>
       <c r="B103" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>6904</v>
       </c>
       <c r="B104" t="s">
+        <v>298</v>
+      </c>
+      <c r="C104" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>6905</v>
       </c>
       <c r="B105" t="s">
+        <v>299</v>
+      </c>
+      <c r="C105" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>7001</v>
       </c>
       <c r="B106" t="s">
+        <v>300</v>
+      </c>
+      <c r="C106" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>7101</v>
       </c>
       <c r="B107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C107" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>7102</v>
       </c>
       <c r="B108" t="s">
+        <v>302</v>
+      </c>
+      <c r="C108" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>7103</v>
       </c>
       <c r="B109" t="s">
+        <v>303</v>
+      </c>
+      <c r="C109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>7104</v>
       </c>
       <c r="B110" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>7201</v>
       </c>
       <c r="B111" t="s">
+        <v>305</v>
+      </c>
+      <c r="C111" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>7202</v>
       </c>
       <c r="B112" t="s">
+        <v>306</v>
+      </c>
+      <c r="C112" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>7301</v>
       </c>
       <c r="B113" t="s">
+        <v>307</v>
+      </c>
+      <c r="C113" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>7401</v>
       </c>
       <c r="B114" t="s">
+        <v>308</v>
+      </c>
+      <c r="C114" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>7402</v>
       </c>
       <c r="B115" t="s">
+        <v>309</v>
+      </c>
+      <c r="C115" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>7403</v>
       </c>
       <c r="B116" t="s">
+        <v>310</v>
+      </c>
+      <c r="C116" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>7404</v>
       </c>
       <c r="B117" t="s">
+        <v>311</v>
+      </c>
+      <c r="C117" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>7405</v>
       </c>
       <c r="B118" t="s">
+        <v>312</v>
+      </c>
+      <c r="C118" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>7406</v>
       </c>
       <c r="B119" t="s">
+        <v>313</v>
+      </c>
+      <c r="C119" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>7501</v>
       </c>
       <c r="B120" t="s">
+        <v>314</v>
+      </c>
+      <c r="C120" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>7502</v>
       </c>
       <c r="B121" t="s">
+        <v>315</v>
+      </c>
+      <c r="C121" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>7503</v>
       </c>
       <c r="B122" t="s">
+        <v>316</v>
+      </c>
+      <c r="C122" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>7504</v>
       </c>
       <c r="B123" t="s">
+        <v>317</v>
+      </c>
+      <c r="C123" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>7505</v>
       </c>
       <c r="B124" t="s">
+        <v>318</v>
+      </c>
+      <c r="C124" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>7506</v>
       </c>
       <c r="B125" t="s">
+        <v>319</v>
+      </c>
+      <c r="C125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>7507</v>
       </c>
       <c r="B126" t="s">
+        <v>320</v>
+      </c>
+      <c r="C126" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>7508</v>
       </c>
       <c r="B127" t="s">
+        <v>321</v>
+      </c>
+      <c r="C127" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>7509</v>
       </c>
       <c r="B128" t="s">
+        <v>322</v>
+      </c>
+      <c r="C128" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>7510</v>
       </c>
       <c r="B129" t="s">
+        <v>323</v>
+      </c>
+      <c r="C129" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>7601</v>
       </c>
       <c r="B130" t="s">
+        <v>324</v>
+      </c>
+      <c r="C130" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>7602</v>
       </c>
       <c r="B131" t="s">
+        <v>325</v>
+      </c>
+      <c r="C131" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>7603</v>
       </c>
       <c r="B132" t="s">
+        <v>326</v>
+      </c>
+      <c r="C132" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>7604</v>
       </c>
       <c r="B133" t="s">
+        <v>327</v>
+      </c>
+      <c r="C133" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>7605</v>
       </c>
       <c r="B134" t="s">
+        <v>328</v>
+      </c>
+      <c r="C134" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>7606</v>
       </c>
       <c r="B135" t="s">
+        <v>329</v>
+      </c>
+      <c r="C135" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>7607</v>
       </c>
       <c r="B136" t="s">
+        <v>330</v>
+      </c>
+      <c r="C136" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>7608</v>
       </c>
       <c r="B137" t="s">
+        <v>331</v>
+      </c>
+      <c r="C137" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>7609</v>
       </c>
       <c r="B138" t="s">
+        <v>332</v>
+      </c>
+      <c r="C138" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>7610</v>
       </c>
       <c r="B139" t="s">
+        <v>333</v>
+      </c>
+      <c r="C139" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>7611</v>
       </c>
       <c r="B140" t="s">
+        <v>334</v>
+      </c>
+      <c r="C140" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>7612</v>
       </c>
       <c r="B141" t="s">
+        <v>335</v>
+      </c>
+      <c r="C141" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>7613</v>
       </c>
       <c r="B142" t="s">
+        <v>336</v>
+      </c>
+      <c r="C142" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>7701</v>
       </c>
       <c r="B143" t="s">
+        <v>337</v>
+      </c>
+      <c r="C143" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>7702</v>
       </c>
       <c r="B144" t="s">
+        <v>338</v>
+      </c>
+      <c r="C144" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>7703</v>
       </c>
       <c r="B145" t="s">
+        <v>339</v>
+      </c>
+      <c r="C145" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>7704</v>
       </c>
       <c r="B146" t="s">
+        <v>340</v>
+      </c>
+      <c r="C146" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>7705</v>
       </c>
       <c r="B147" t="s">
+        <v>341</v>
+      </c>
+      <c r="C147" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>7706</v>
       </c>
       <c r="B148" t="s">
+        <v>342</v>
+      </c>
+      <c r="C148" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>7707</v>
       </c>
       <c r="B149" t="s">
+        <v>343</v>
+      </c>
+      <c r="C149" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>7708</v>
       </c>
       <c r="B150" t="s">
+        <v>344</v>
+      </c>
+      <c r="C150" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>7801</v>
       </c>
       <c r="B151" t="s">
+        <v>345</v>
+      </c>
+      <c r="C151" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>7802</v>
       </c>
       <c r="B152" t="s">
+        <v>346</v>
+      </c>
+      <c r="C152" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>7803</v>
       </c>
       <c r="B153" t="s">
+        <v>347</v>
+      </c>
+      <c r="C153" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>7804</v>
       </c>
       <c r="B154" t="s">
+        <v>348</v>
+      </c>
+      <c r="C154" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>7805</v>
       </c>
       <c r="B155" t="s">
+        <v>349</v>
+      </c>
+      <c r="C155" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>7806</v>
       </c>
       <c r="B156" t="s">
+        <v>350</v>
+      </c>
+      <c r="C156" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>7901</v>
       </c>
       <c r="B157" t="s">
+        <v>351</v>
+      </c>
+      <c r="C157" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>7902</v>
       </c>
       <c r="B158" t="s">
+        <v>352</v>
+      </c>
+      <c r="C158" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>8001</v>
       </c>
       <c r="B159" t="s">
+        <v>353</v>
+      </c>
+      <c r="C159" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>8002</v>
       </c>
       <c r="B160" t="s">
+        <v>354</v>
+      </c>
+      <c r="C160" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>8101</v>
       </c>
       <c r="B161" t="s">
+        <v>355</v>
+      </c>
+      <c r="C161" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>8102</v>
       </c>
       <c r="B162" t="s">
+        <v>356</v>
+      </c>
+      <c r="C162" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>8201</v>
       </c>
       <c r="B163" t="s">
+        <v>357</v>
+      </c>
+      <c r="C163" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>8202</v>
       </c>
       <c r="B164" t="s">
+        <v>358</v>
+      </c>
+      <c r="C164" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>8203</v>
       </c>
       <c r="B165" t="s">
+        <v>359</v>
+      </c>
+      <c r="C165" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>8204</v>
       </c>
       <c r="B166" t="s">
+        <v>360</v>
+      </c>
+      <c r="C166" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>8205</v>
       </c>
       <c r="B167" t="s">
+        <v>361</v>
+      </c>
+      <c r="C167" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>8206</v>
       </c>
       <c r="B168" t="s">
+        <v>362</v>
+      </c>
+      <c r="C168" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>8207</v>
       </c>
       <c r="B169" t="s">
+        <v>363</v>
+      </c>
+      <c r="C169" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>8208</v>
       </c>
       <c r="B170" t="s">
+        <v>364</v>
+      </c>
+      <c r="C170" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>8209</v>
       </c>
       <c r="B171" t="s">
+        <v>365</v>
+      </c>
+      <c r="C171" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>8301</v>
       </c>
       <c r="B172" t="s">
+        <v>366</v>
+      </c>
+      <c r="C172" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>8302</v>
       </c>
       <c r="B173" t="s">
+        <v>367</v>
+      </c>
+      <c r="C173" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>8303</v>
       </c>
       <c r="B174" t="s">
+        <v>368</v>
+      </c>
+      <c r="C174" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>8401</v>
       </c>
       <c r="B175" t="s">
+        <v>369</v>
+      </c>
+      <c r="C175" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>8402</v>
       </c>
       <c r="B176" t="s">
+        <v>370</v>
+      </c>
+      <c r="C176" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>8403</v>
       </c>
       <c r="B177" t="s">
+        <v>371</v>
+      </c>
+      <c r="C177" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>8404</v>
       </c>
       <c r="B178" t="s">
+        <v>372</v>
+      </c>
+      <c r="C178" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>8405</v>
       </c>
       <c r="B179" t="s">
+        <v>373</v>
+      </c>
+      <c r="C179" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>8406</v>
       </c>
       <c r="B180" t="s">
+        <v>374</v>
+      </c>
+      <c r="C180" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>8501</v>
       </c>
       <c r="B181" t="s">
+        <v>375</v>
+      </c>
+      <c r="C181" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>8502</v>
       </c>
       <c r="B182" t="s">
+        <v>376</v>
+      </c>
+      <c r="C182" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>8503</v>
       </c>
       <c r="B183" t="s">
+        <v>377</v>
+      </c>
+      <c r="C183" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>8504</v>
       </c>
       <c r="B184" t="s">
+        <v>378</v>
+      </c>
+      <c r="C184" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>8505</v>
       </c>
       <c r="B185" t="s">
+        <v>379</v>
+      </c>
+      <c r="C185" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>8506</v>
       </c>
       <c r="B186" t="s">
+        <v>380</v>
+      </c>
+      <c r="C186" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>8507</v>
       </c>
       <c r="B187" t="s">
+        <v>381</v>
+      </c>
+      <c r="C187" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>8508</v>
       </c>
       <c r="B188" t="s">
+        <v>382</v>
+      </c>
+      <c r="C188" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>8509</v>
       </c>
       <c r="B189" t="s">
+        <v>383</v>
+      </c>
+      <c r="C189" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>8510</v>
       </c>
       <c r="B190" t="s">
+        <v>384</v>
+      </c>
+      <c r="C190" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>8511</v>
       </c>
       <c r="B191" t="s">
+        <v>385</v>
+      </c>
+      <c r="C191" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>8514</v>
       </c>
       <c r="B192" t="s">
+        <v>386</v>
+      </c>
+      <c r="C192" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>8601</v>
       </c>
       <c r="B193" t="s">
+        <v>387</v>
+      </c>
+      <c r="C193" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>8701</v>
       </c>
       <c r="B194" t="s">
+        <v>388</v>
+      </c>
+      <c r="C194" t="s">
         <v>194</v>
       </c>
     </row>
